--- a/heat_map/xlsx/map_2.xlsx
+++ b/heat_map/xlsx/map_2.xlsx
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="n">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2528,46 +2528,46 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
         <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
